--- a/MEDIA/_1101_001_會計科目餘額明細.xlsx
+++ b/MEDIA/_1101_001_會計科目餘額明細.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -356,7 +356,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>森邦(股)會計科目餘額明細(_1101_001_2020-10-31~2020-10-31)</t>
+          <t>森邦(股)會計科目餘額明細(_1101_001_2020-12-05~2020-12-05)</t>
         </is>
       </c>
     </row>
@@ -419,7 +419,7 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>34782</v>
+        <v>11639</v>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
@@ -427,7 +427,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20201031</t>
+          <t>20201205</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -442,21 +442,21 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>沖12/5收現                       </t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>-30</v>
+        <v>-600131</v>
       </c>
       <c r="G4" t="n">
-        <v>34752</v>
+        <v>-588492</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>110815</t>
+          <t>112366</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -468,7 +468,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20201031</t>
+          <t>20201205</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -478,7 +478,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>竹南光復                                    </t>
+          <t>新竹建新                                    </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -487,29 +487,29 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>13429</v>
+        <v>14360</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>48181</v>
+        <v>-574132</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>110812</t>
+          <t>112364</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1000270</t>
+          <t>1000213</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>20201031</t>
+          <t>20201205</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -519,38 +519,38 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>新竹延平                                    </t>
+          <t>竹北台大                                    </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Sales Order20044816           </t>
+          <t>                              </t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>36</v>
+        <v>15645</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>48217</v>
+        <v>-558487</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>110814</t>
+          <t>112360</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1000255</t>
+          <t>1000183</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>20201031</t>
+          <t>20201205</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -560,7 +560,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>竹北台大                                    </t>
+          <t>竹北縣政                                    </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -569,29 +569,29 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>10950</v>
+        <v>22439</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>59167</v>
+        <v>-536048</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>110811</t>
+          <t>112360</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1000183</t>
+          <t>1000159</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>20201031</t>
+          <t>20201205</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>竹北自強                                    </t>
+          <t>竹北中華                                    </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -610,29 +610,29 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>14578</v>
+        <v>21560</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>73745</v>
+        <v>-514488</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>110811</t>
+          <t>112360</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1000758</t>
+          <t>1000563</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>20201031</t>
+          <t>20201205</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>竹南中正                                    </t>
+          <t>中壢長春                                    </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -651,29 +651,29 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>11500</v>
+        <v>7000</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>85245</v>
+        <v>-507488</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>110812</t>
+          <t>112360</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1000481</t>
+          <t>1000558</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20201031</t>
+          <t>20201205</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>竹北縣政                                    </t>
+          <t>大溪老街                                    </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -692,29 +692,29 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>20743</v>
+        <v>15651</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>105988</v>
+        <v>-491837</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>110811</t>
+          <t>112360</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1000159</t>
+          <t>1000894</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>20201031</t>
+          <t>20201205</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>新豐新市                                    </t>
+          <t>竹南中正                                    </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -733,29 +733,29 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>8520</v>
+        <v>10700</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>114508</v>
+        <v>-481137</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>110813</t>
+          <t>112361</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1000235</t>
+          <t>1000481</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>20201031</t>
+          <t>20201205</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -765,7 +765,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>其他                                      </t>
+          <t>竹南仁愛	                                   </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -774,29 +774,29 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>625</v>
+        <v>23456</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>115133</v>
+        <v>-457681</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>110813</t>
+          <t>112361</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1000000</t>
+          <t>1000928</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>20201031</t>
+          <t>20201205</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -806,7 +806,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>新竹建新                                    </t>
+          <t>頭份自強                                    </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -815,29 +815,29 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>16400</v>
+        <v>8000</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>131533</v>
+        <v>-449681</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>110811</t>
+          <t>112361</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>1000213</t>
+          <t>1000139</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>20201031</t>
+          <t>20201205</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -847,7 +847,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>楊梅梅獅                                    </t>
+          <t>竹南中山                                    </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -856,29 +856,29 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>148533</v>
+        <v>-431681</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>110813</t>
+          <t>112361</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>1000961</t>
+          <t>1000633</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>20201031</t>
+          <t>20201205</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>桃園中山北                                   </t>
+          <t>竹南光復                                    </t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -897,29 +897,29 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>8830</v>
+        <v>13455</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>157363</v>
+        <v>-418226</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>110813</t>
+          <t>112361</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>1000313</t>
+          <t>1000270</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>20201031</t>
+          <t>20201205</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -929,7 +929,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>新竹長春                                    </t>
+          <t>新竹香北                                    </t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -938,29 +938,29 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>10600</v>
+        <v>13000</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167963</v>
+        <v>-405226</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>110811</t>
+          <t>112362</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>1000263</t>
+          <t>1000604</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>20201031</t>
+          <t>20201205</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -970,7 +970,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>新竹新莊                                    </t>
+          <t>新竹南大                                    </t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -979,29 +979,29 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>18265</v>
+        <v>11856</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>186228</v>
+        <v>-393370</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>110811</t>
+          <t>112362</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>1000840</t>
+          <t>1000065</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>20201031</t>
+          <t>20201205</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>桃園龍安                                    </t>
+          <t>新竹明湖                                    </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1020,29 +1020,29 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>2604</v>
+        <v>14117</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>188832</v>
+        <v>-379253</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>110813</t>
+          <t>112362</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>1000668</t>
+          <t>1000237</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>20201031</t>
+          <t>20201205</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1052,7 +1052,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>桃園永安	                                   </t>
+          <t>新竹高翠                                    </t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1061,29 +1061,29 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5000</v>
+        <v>22665</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>193832</v>
+        <v>-356588</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>110813</t>
+          <t>112362</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>1000847</t>
+          <t>1000265</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>20201031</t>
+          <t>20201205</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1093,7 +1093,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>芎林福昌                                    </t>
+          <t>新竹寶山                                    </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1102,29 +1102,29 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>3871</v>
+        <v>24000</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>197703</v>
+        <v>-332588</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>110811</t>
+          <t>112362</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>1000302</t>
+          <t>1000652</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20201031</t>
+          <t>20201205</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1134,7 +1134,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>竹東中豐                                    </t>
+          <t>新竹牛埔                                    </t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1143,29 +1143,29 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>40200</v>
+        <v>7784</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>237903</v>
+        <v>-324804</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>110811</t>
+          <t>112362</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>1000152</t>
+          <t>1000381</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>20201031</t>
+          <t>20201205</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>桃園成功	                                   </t>
+          <t>新竹西大                                    </t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1184,29 +1184,29 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>265903</v>
+        <v>-299804</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>110813</t>
+          <t>112362</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>1000868</t>
+          <t>1000344</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>20201031</t>
+          <t>20201205</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1216,7 +1216,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>青埔高鐵                                    </t>
+          <t>新竹中山                                    </t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1225,29 +1225,29 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>21016</v>
+        <v>22355</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>286919</v>
+        <v>-277449</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>110813</t>
+          <t>112362</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>1000899</t>
+          <t>1000577</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>20201031</t>
+          <t>20201205</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1257,7 +1257,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>泰山仁武                                    </t>
+          <t>新竹東南                                    </t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1266,29 +1266,29 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>38000</v>
+        <v>12138</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>324919</v>
+        <v>-265311</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>110811</t>
+          <t>112362</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>1000506</t>
+          <t>1000459</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>20201031</t>
+          <t>20201205</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1298,7 +1298,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>樹林保安	                                   </t>
+          <t>新竹交大	                                   </t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1307,29 +1307,29 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>23780</v>
+        <v>20000</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>348699</v>
+        <v>-245311</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>110811</t>
+          <t>112363</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>1000944</t>
+          <t>1000883</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>20201031</t>
+          <t>20201205</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>樹林站前	                                   </t>
+          <t>新豐新市                                    </t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1348,29 +1348,29 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>10200</v>
+        <v>9140</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>358899</v>
+        <v>-236171</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>110811</t>
+          <t>112363</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>1000953</t>
+          <t>1000235</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>20201031</t>
+          <t>20201205</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1380,7 +1380,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>竹北中華                                    </t>
+          <t>新豐松柏                                    </t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1389,29 +1389,29 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>15100</v>
+        <v>22439</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>373999</v>
+        <v>-213732</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>110811</t>
+          <t>112363</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>1000563</t>
+          <t>1000676</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>20201031</t>
+          <t>20201205</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1421,7 +1421,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>新竹南大                                    </t>
+          <t>湖口中興                                    </t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1430,29 +1430,29 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>8860</v>
+        <v>21521</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>382859</v>
+        <v>-192211</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>110811</t>
+          <t>112363</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>1000065</t>
+          <t>1000207</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>20201031</t>
+          <t>20201205</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1462,7 +1462,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>新竹西大                                    </t>
+          <t>楊梅梅獅                                    </t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1471,29 +1471,29 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>23875</v>
+        <v>12600</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>406734</v>
+        <v>-179611</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>110811</t>
+          <t>112363</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>1000344</t>
+          <t>1000961</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>20201031</t>
+          <t>20201205</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>新竹東南                                    </t>
+          <t>桃園龍安                                    </t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1512,29 +1512,29 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>18896</v>
+        <v>1935</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>425630</v>
+        <v>-177676</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>110811</t>
+          <t>112363</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>1000459</t>
+          <t>1000668</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>20201031</t>
+          <t>20201205</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1544,7 +1544,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>新竹牛埔                                    </t>
+          <t>桃園永安	                                   </t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1553,29 +1553,29 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6176</v>
+        <v>13000</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>431806</v>
+        <v>-164676</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>110811</t>
+          <t>112363</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>1000381</t>
+          <t>1000847</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>20201031</t>
+          <t>20201205</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1585,7 +1585,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>新竹香北                                    </t>
+          <t>青埔高鐵                                    </t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1594,29 +1594,29 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>13500</v>
+        <v>15500</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>445306</v>
+        <v>-149176</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>110811</t>
+          <t>112363</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>1000604</t>
+          <t>1000899</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>20201031</t>
+          <t>20201205</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1626,7 +1626,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>新竹明湖                                    </t>
+          <t>桃園中山北                                   </t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1635,29 +1635,29 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>9088</v>
+        <v>9380</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>454394</v>
+        <v>-139796</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>110811</t>
+          <t>112363</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>1000237</t>
+          <t>1000313</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>20201031</t>
+          <t>20201205</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1667,7 +1667,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>新竹寶山                                    </t>
+          <t>其他                                      </t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1676,29 +1676,29 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>23000</v>
+        <v>1072</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>477394</v>
+        <v>-138724</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>110811</t>
+          <t>112363</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>1000652</t>
+          <t>1000000</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>20201031</t>
+          <t>20201205</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1708,7 +1708,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>新竹南寮                                    </t>
+          <t>樹林保安	                                   </t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1717,29 +1717,29 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>14312</v>
+        <v>59550</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>491706</v>
+        <v>-79174</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>110811</t>
+          <t>112360</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>1000916</t>
+          <t>1000944</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>20201031</t>
+          <t>20201205</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1749,7 +1749,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>新竹交大	                                   </t>
+          <t>竹北自強                                    </t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1758,29 +1758,29 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>19200</v>
+        <v>16390</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>510906</v>
+        <v>-62784</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>110811</t>
+          <t>112360</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>1000883</t>
+          <t>1000758</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>20201031</t>
+          <t>20201205</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>中壢長春                                    </t>
+          <t>新竹長春                                    </t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1799,29 +1799,29 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>2300</v>
+        <v>10300</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>513206</v>
+        <v>-52484</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>110812</t>
+          <t>112364</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>1000558</t>
+          <t>1000263</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>20201031</t>
+          <t>20201205</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>大溪老街                                    </t>
+          <t>芎林福昌                                    </t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1840,29 +1840,29 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>15700</v>
+        <v>9939</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>528906</v>
+        <v>-42545</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>110812</t>
+          <t>112364</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>1000894</t>
+          <t>1000302</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>20201031</t>
+          <t>20201205</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1872,7 +1872,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>竹南仁愛	                                   </t>
+          <t>竹東中豐                                    </t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1881,29 +1881,29 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>21710</v>
+        <v>35800</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>550616</v>
+        <v>-6745</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>110812</t>
+          <t>112364</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>1000928</t>
+          <t>1000152</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>20201031</t>
+          <t>20201205</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1913,7 +1913,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>頭份自強                                    </t>
+          <t>新竹新莊                                    </t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1922,29 +1922,29 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>8500</v>
+        <v>18429</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>559116</v>
+        <v>11684</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>110812</t>
+          <t>112364</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>1000139</t>
+          <t>1000840</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>20201031</t>
+          <t>20201205</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1954,113 +1954,31 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>竹南中山                                    </t>
+          <t>新竹延平                                    </t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>Sales Order20049932           </t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>23100</v>
+        <v>74</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>582216</v>
+        <v>11758</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>110812</t>
+          <t>112365</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>1000633</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>20201031</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>1101  .001     </t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>竹南華東                                    </t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>                              </t>
-        </is>
-      </c>
-      <c r="E42" t="n">
-        <v>11268</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" t="n">
-        <v>593484</v>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>110812</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>1000767</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>20201031</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>1101  .001     </t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>沖10/31收現                      </t>
-        </is>
-      </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
-        <v>-321611</v>
-      </c>
-      <c r="G43" t="n">
-        <v>271873</v>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>110815</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>0</t>
+          <t>1000255</t>
         </is>
       </c>
     </row>
